--- a/dbstock/รายงานสินค้า2.xlsx
+++ b/dbstock/รายงานสินค้า2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\dbstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE25E1-3176-44FF-B44D-778F66B4D422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6C1C27-D427-4CEE-989D-4E9292FE3DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
